--- a/analysis/results_tables/rank of hm by characteristic - Copy.xlsx
+++ b/analysis/results_tables/rank of hm by characteristic - Copy.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="classes" sheetId="6" r:id="rId1"/>
     <sheet name="length" sheetId="7" r:id="rId2"/>
-    <sheet name="type" sheetId="8" r:id="rId3"/>
-    <sheet name="size" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="type" sheetId="8" r:id="rId4"/>
+    <sheet name="size" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="30">
   <si>
     <t>num_classes_std</t>
   </si>
@@ -119,18 +120,12 @@
   <si>
     <t>Dummy</t>
   </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +142,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,11 +178,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -190,22 +193,16 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -612,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,26 +686,26 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="10">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="11">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
+      <c r="H2" s="10">
+        <v>20</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
@@ -732,34 +729,34 @@
       <c r="P2">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
-        <v>31</v>
+      <c r="Q2" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
+      <c r="E3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>6</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
@@ -783,34 +780,34 @@
       <c r="P3">
         <v>4</v>
       </c>
-      <c r="Q3" t="s">
-        <v>30</v>
+      <c r="Q3" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>6</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
@@ -834,34 +831,34 @@
       <c r="P4">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
-        <v>30</v>
+      <c r="Q4" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
@@ -885,34 +882,34 @@
       <c r="P5" s="3">
         <v>2</v>
       </c>
-      <c r="Q5" t="s">
-        <v>8</v>
+      <c r="Q5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
@@ -936,8 +933,8 @@
       <c r="P6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6" t="s">
-        <v>8</v>
+      <c r="Q6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1013,8 +1010,8 @@
       <c r="G10">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
+      <c r="H10" s="2">
+        <v>20</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
@@ -1038,8 +1035,8 @@
       <c r="P10">
         <v>19</v>
       </c>
-      <c r="Q10" t="s">
-        <v>31</v>
+      <c r="Q10" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1064,8 +1061,8 @@
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
+      <c r="H11" s="2">
+        <v>6</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
@@ -1089,8 +1086,8 @@
       <c r="P11">
         <v>5</v>
       </c>
-      <c r="Q11" t="s">
-        <v>30</v>
+      <c r="Q11" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,8 +1112,8 @@
       <c r="G12">
         <v>4</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
+      <c r="H12" s="2">
+        <v>6</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
@@ -1140,8 +1137,8 @@
       <c r="P12" s="3">
         <v>6</v>
       </c>
-      <c r="Q12" t="s">
-        <v>30</v>
+      <c r="Q12" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1166,8 +1163,8 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>8</v>
+      <c r="H13" s="2">
+        <v>2</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
@@ -1191,8 +1188,8 @@
       <c r="P13" s="3">
         <v>2</v>
       </c>
-      <c r="Q13" t="s">
-        <v>8</v>
+      <c r="Q13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,8 +1214,8 @@
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
-        <v>8</v>
+      <c r="H14" s="2">
+        <v>2</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
@@ -1242,9 +1239,649 @@
       <c r="P14" s="3">
         <v>2</v>
       </c>
-      <c r="Q14" t="s">
-        <v>8</v>
-      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9">
+        <f>B2/H2</f>
+        <v>0.4</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
+        <f>D2/H2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E18" s="9">
+        <f>E2/H2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F18" s="9">
+        <f>F2/H2</f>
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="9">
+        <f>G2/H2</f>
+        <v>0.4</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9">
+        <f>K2/Q2</f>
+        <v>0.65</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9">
+        <f>M2/Q2</f>
+        <v>0.85</v>
+      </c>
+      <c r="N18" s="9">
+        <f>N2/Q2</f>
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="9">
+        <f>O2/Q2</f>
+        <v>0.95</v>
+      </c>
+      <c r="P18" s="9">
+        <f>P2/Q2</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9">
+        <f t="shared" ref="B19:B22" si="0">B3/H3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <f t="shared" ref="D19:D22" si="1">D3/H3</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:E22" si="2">E3/H3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" ref="F19:F22" si="3">F3/H3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" ref="G19:G22" si="4">G3/H3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9">
+        <f t="shared" ref="K19:K22" si="5">K3/Q3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9">
+        <f t="shared" ref="M19:M22" si="6">M3/Q3</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" ref="N19:N22" si="7">N3/Q3</f>
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" ref="O19:O22" si="8">O3/Q3</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" ref="P19:P22" si="9">P3/Q3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="9"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9">
+        <f>B10/H10</f>
+        <v>0.8</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <f>D10/H10</f>
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="9">
+        <f>E10/H10</f>
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="9">
+        <f>F10/H10</f>
+        <v>0.95</v>
+      </c>
+      <c r="G26" s="9">
+        <f>G10/H10</f>
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9">
+        <f>K10/Q10</f>
+        <v>0.95</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9">
+        <f>M10/Q10</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="9">
+        <f>N10/Q10</f>
+        <v>0.95</v>
+      </c>
+      <c r="O26" s="9">
+        <f>O10/Q10</f>
+        <v>0.95</v>
+      </c>
+      <c r="P26" s="9">
+        <f>P10/Q10</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="9">
+        <f t="shared" ref="B27:B30" si="10">B11/H11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <f t="shared" ref="D27:D30" si="11">D11/H11</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" ref="E27:E30" si="12">E11/H11</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" ref="F27:F30" si="13">F11/H11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" ref="G27:G30" si="14">G11/H11</f>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9">
+        <f t="shared" ref="K27:K30" si="15">K11/Q11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9">
+        <f t="shared" ref="M27:M30" si="16">M11/Q11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" ref="N27:N30" si="17">N11/Q11</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" ref="O27:O30" si="18">O11/Q11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" ref="P27:P30" si="19">P11/Q11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G6 K2:P6 B10:G14 K10:P14">
@@ -1261,7 +1898,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:Q2"/>
+      <selection activeCell="L20" sqref="L20:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,7 +1906,9 @@
     <col min="1" max="1" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="5"/>
     <col min="3" max="3" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="5"/>
+    <col min="4" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="5"/>
     <col min="11" max="11" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="5"/>
     <col min="13" max="13" width="0" style="5" hidden="1" customWidth="1"/>
@@ -1978,107 +2617,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="8">
-        <f>B2/H2</f>
-        <v>0</v>
+        <f>B10/H10</f>
+        <v>1</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8">
-        <f>D2/H2</f>
-        <v>0</v>
+        <f>D10/H10</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E20" s="8">
-        <f>E2/H2</f>
-        <v>0</v>
+        <f>E10/H10</f>
+        <v>1</v>
       </c>
       <c r="F20" s="8">
-        <f>F2/H2</f>
+        <f>F10/H10</f>
         <v>1</v>
       </c>
       <c r="G20" s="8">
-        <f>G2/H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+        <f>G10/H10</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L20" s="8">
+        <f>L10/R10</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8">
+        <f>N10/R10</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O20" s="8">
+        <f>O10/R10</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="8">
+        <f>P10/R10</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="8">
+        <f>Q10/R10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
-        <f>B3/H3</f>
-        <v>0.4</v>
+        <f t="shared" ref="B21:B25" si="0">B11/H11</f>
+        <v>0.8</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8">
-        <f>D3/H3</f>
-        <v>0.6</v>
+        <f t="shared" ref="D21:D25" si="1">D11/H11</f>
+        <v>0.8</v>
       </c>
       <c r="E21" s="8">
-        <f>E3/H3</f>
-        <v>0.4</v>
+        <f t="shared" ref="E21:E25" si="2">E11/H11</f>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
-        <f>F3/H3</f>
+        <f t="shared" ref="F21:F25" si="3">F11/H11</f>
         <v>1</v>
       </c>
       <c r="G21" s="8">
-        <f>G3/H3</f>
+        <f t="shared" ref="G21:G25" si="4">G11/H11</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="L21" s="8">
+        <f t="shared" ref="L21:L25" si="5">L11/R11</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8">
+        <f t="shared" ref="N21:N25" si="6">N11/R11</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" ref="O21:O25" si="7">O11/R11</f>
+        <v>1</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21:P25" si="8">P11/R11</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" ref="Q21:Q25" si="9">Q11/R11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
-        <f t="shared" ref="B22:B25" si="0">B4/H4</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8">
-        <f t="shared" ref="D22:D25" si="1">D4/H4</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22:E24" si="2">E4/H4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:F25" si="3">F4/H4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22:G25" si="4">G4/H4</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="8">
-        <f>F5/H5</f>
-        <v>0.875</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="4"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.625</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="2"/>
@@ -2086,17 +2809,38 @@
       </c>
       <c r="F24" s="8">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8">
@@ -2104,16 +2848,37 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E25" s="8">
-        <f>E7/H7</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F25" s="8">
-        <f>F7/H7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G25" s="8">
-        <f>G7/H7</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2129,10 +2894,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:Q16"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,6 +3920,358 @@
         <v>34</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <f>B15/H15</f>
+        <v>0.6</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9">
+        <f>D15/H15</f>
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="9">
+        <f>E15/H15</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <f>F15/H15</f>
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="9">
+        <f>G15/H15</f>
+        <v>0.6</v>
+      </c>
+      <c r="L27" s="9">
+        <f>L15/R15</f>
+        <v>0.8</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9">
+        <f>N15/R15</f>
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="9">
+        <f>O15/R15</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="9">
+        <f>P15/R15</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q27" s="9">
+        <f>Q15/R15</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <f t="shared" ref="B28:B34" si="4">B16/H16</f>
+        <v>0.875</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D34" si="5">D16/H16</f>
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" ref="E28:E34" si="6">E16/H16</f>
+        <v>0.875</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F34" si="7">F16/H16</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" ref="G28:G34" si="8">G16/H16</f>
+        <v>0.375</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" ref="L28:L34" si="9">L16/R16</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9">
+        <f t="shared" ref="N28:N34" si="10">N16/R16</f>
+        <v>1</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" ref="O28:O34" si="11">O16/R16</f>
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28:P34" si="12">P16/R16</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" ref="Q28:Q34" si="13">Q16/R16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9">
+        <f t="shared" si="5"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="6"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="7"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="8"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="9"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="11"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="12"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="13"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H9 L2:R9 B15:H22 L15:R22">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
@@ -3153,12 +4282,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4302,47 +5431,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G6 B10:G14 B18:G22 B26:G30">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K30 M26:M30">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:L30">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K6 M2:M6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L6">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K22 M18:M22">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L22">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K14 M10:M14">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L14">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,12 +5479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4391,24 +5520,6 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
@@ -4459,30 +5570,6 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2">
-        <f>MAX(B2:G2)</f>
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>B2/I2</f>
-        <v>0.4</v>
-      </c>
-      <c r="K2">
-        <f>D2/I2</f>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f>E2/I2</f>
-        <v>0.8</v>
-      </c>
-      <c r="N2">
-        <f>F2/I2</f>
-        <v>0.8</v>
-      </c>
-      <c r="O2">
-        <f>G2/I2</f>
-        <v>0.6</v>
-      </c>
       <c r="R2" t="s">
         <v>20</v>
       </c>
@@ -4533,30 +5620,6 @@
       <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="0">MAX(B3:G3)</f>
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="1">B3/I3</f>
-        <v>0.5</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="2">D3/I3</f>
-        <v>0.375</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L9" si="3">E3/I3</f>
-        <v>0.625</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N9" si="4">F3/I3</f>
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O9" si="5">G3/I3</f>
-        <v>0.125</v>
-      </c>
       <c r="R3" t="s">
         <v>21</v>
       </c>
@@ -4607,30 +5670,6 @@
       <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
       <c r="R4" t="s">
         <v>22</v>
       </c>
@@ -4681,30 +5720,6 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="R5" t="s">
         <v>23</v>
       </c>
@@ -4755,30 +5770,6 @@
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>0.6</v>
-      </c>
       <c r="R6" t="s">
         <v>24</v>
       </c>
@@ -4829,30 +5820,6 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
       <c r="R7" t="s">
         <v>25</v>
       </c>
@@ -4903,30 +5870,6 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="R8" t="s">
         <v>26</v>
       </c>
@@ -4975,30 +5918,6 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R9" t="s">
@@ -5032,23 +5951,23 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="6">SUM(C2:C9)</f>
+        <f t="shared" ref="C10:G10" si="0">SUM(C2:C9)</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="S10">
@@ -5056,23 +5975,23 @@
         <v>26</v>
       </c>
       <c r="T10">
-        <f t="shared" ref="T10:X10" si="7">SUM(T2:T9)</f>
+        <f t="shared" ref="T10:X10" si="1">SUM(T2:T9)</f>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="V10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="X10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -5532,23 +6451,23 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:G23" si="8">SUM(C15:C22)</f>
+        <f t="shared" ref="C23:G23" si="2">SUM(C15:C22)</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="S23">
@@ -5556,29 +6475,29 @@
         <v>34</v>
       </c>
       <c r="T23">
-        <f t="shared" ref="T23:X23" si="9">SUM(T15:T22)</f>
+        <f t="shared" ref="T23:X23" si="3">SUM(T15:T22)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="W23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="X23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H9 S2:Y9 B15:H22 S15:Y22">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
